--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2052,28 +2052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>667.1596878164727</v>
+        <v>727.5080110388367</v>
       </c>
       <c r="AB2" t="n">
-        <v>912.8373178786477</v>
+        <v>995.4085560916051</v>
       </c>
       <c r="AC2" t="n">
-        <v>825.7174054355313</v>
+        <v>900.4081605629046</v>
       </c>
       <c r="AD2" t="n">
-        <v>667159.6878164727</v>
+        <v>727508.0110388367</v>
       </c>
       <c r="AE2" t="n">
-        <v>912837.3178786477</v>
+        <v>995408.5560916051</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.124223148906038e-06</v>
+        <v>3.062416921637448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.30625</v>
       </c>
       <c r="AH2" t="n">
-        <v>825717.4054355313</v>
+        <v>900408.1605629047</v>
       </c>
     </row>
     <row r="3">
@@ -2158,28 +2158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.4411602644335</v>
+        <v>254.974631446367</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.6173206512801</v>
+        <v>348.8675394316024</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.8313868909793</v>
+        <v>315.5721111070213</v>
       </c>
       <c r="AD3" t="n">
-        <v>220441.1602644335</v>
+        <v>254974.631446367</v>
       </c>
       <c r="AE3" t="n">
-        <v>301617.3206512801</v>
+        <v>348867.5394316025</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.018532440063576e-06</v>
+        <v>5.793375216223141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>272831.3868909793</v>
+        <v>315572.1111070213</v>
       </c>
     </row>
     <row r="4">
@@ -2264,28 +2264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.1962573092904</v>
+        <v>244.5591362906317</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.5997924548407</v>
+        <v>334.6165994603162</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.1516719118792</v>
+        <v>302.6812608452702</v>
       </c>
       <c r="AD4" t="n">
-        <v>210196.2573092904</v>
+        <v>244559.1362906317</v>
       </c>
       <c r="AE4" t="n">
-        <v>287599.7924548407</v>
+        <v>334616.5994603162</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.144576585428236e-06</v>
+        <v>5.975088575215982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>260151.6719118792</v>
+        <v>302681.2608452702</v>
       </c>
     </row>
   </sheetData>
@@ -2561,28 +2561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.0362569923877</v>
+        <v>442.1234642759538</v>
       </c>
       <c r="AB2" t="n">
-        <v>547.347255171086</v>
+        <v>604.9328289330033</v>
       </c>
       <c r="AC2" t="n">
-        <v>495.1092013442542</v>
+        <v>547.1988887681945</v>
       </c>
       <c r="AD2" t="n">
-        <v>400036.2569923877</v>
+        <v>442123.4642759538</v>
       </c>
       <c r="AE2" t="n">
-        <v>547347.2551710859</v>
+        <v>604932.8289330032</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.848980906301238e-06</v>
+        <v>4.170800871146587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.03541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>495109.2013442542</v>
+        <v>547198.8887681945</v>
       </c>
     </row>
     <row r="3">
@@ -2667,28 +2667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.6860021804459</v>
+        <v>237.3556964004575</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.6921741753741</v>
+        <v>324.7605352092456</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.0941842190814</v>
+        <v>293.7658455332455</v>
       </c>
       <c r="AD3" t="n">
-        <v>203686.0021804459</v>
+        <v>237355.6964004575</v>
       </c>
       <c r="AE3" t="n">
-        <v>278692.1741753742</v>
+        <v>324760.5352092456</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.142627708336104e-06</v>
+        <v>6.064651123687563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.589583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>252094.1842190814</v>
+        <v>293765.8455332455</v>
       </c>
     </row>
     <row r="4">
@@ -2773,28 +2773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.7446597247431</v>
+        <v>237.4143539447548</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.7724320152699</v>
+        <v>324.8407930491413</v>
       </c>
       <c r="AC4" t="n">
-        <v>252.16678236338</v>
+        <v>293.8384436775442</v>
       </c>
       <c r="AD4" t="n">
-        <v>203744.6597247431</v>
+        <v>237414.3539447548</v>
       </c>
       <c r="AE4" t="n">
-        <v>278772.4320152699</v>
+        <v>324840.7930491413</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.153040870881649e-06</v>
+        <v>6.07989560192197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.570833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>252166.78236338</v>
+        <v>293838.4436775442</v>
       </c>
     </row>
   </sheetData>
@@ -3070,28 +3070,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.9405926845697</v>
+        <v>252.0098371300797</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.3006661219135</v>
+        <v>344.8109770505662</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.449514828977</v>
+        <v>311.9027013462089</v>
       </c>
       <c r="AD2" t="n">
-        <v>220940.5926845697</v>
+        <v>252009.8371300797</v>
       </c>
       <c r="AE2" t="n">
-        <v>302300.6661219135</v>
+        <v>344810.9770505662</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.797242592078378e-06</v>
+        <v>5.874802994667641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.239583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>273449.5148289771</v>
+        <v>311902.7013462089</v>
       </c>
     </row>
     <row r="3">
@@ -3176,28 +3176,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.5041418706971</v>
+        <v>252.5733863162072</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.0717389804081</v>
+        <v>345.5820499090609</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.1469975760647</v>
+        <v>312.6001840932965</v>
       </c>
       <c r="AD3" t="n">
-        <v>221504.1418706971</v>
+        <v>252573.3863162072</v>
       </c>
       <c r="AE3" t="n">
-        <v>303071.7389804081</v>
+        <v>345582.0499090609</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.804483774900648e-06</v>
+        <v>5.886005998293997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.220833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>274146.9975760647</v>
+        <v>312600.1840932965</v>
       </c>
     </row>
   </sheetData>
@@ -3473,28 +3473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.8806637398574</v>
+        <v>240.8812744408147</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.7997392932513</v>
+        <v>329.5843866215857</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.5234132976408</v>
+        <v>298.1293153371114</v>
       </c>
       <c r="AD2" t="n">
-        <v>208880.6637398574</v>
+        <v>240881.2744408147</v>
       </c>
       <c r="AE2" t="n">
-        <v>285799.7392932513</v>
+        <v>329584.3866215857</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.002109648836697e-06</v>
+        <v>6.048364173320143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>258523.4132976408</v>
+        <v>298129.3153371115</v>
       </c>
     </row>
     <row r="3">
@@ -3579,28 +3579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.1249330362105</v>
+        <v>239.1255437371679</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.3974710871509</v>
+        <v>327.1821184154854</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.3504141975253</v>
+        <v>295.9563162369959</v>
       </c>
       <c r="AD3" t="n">
-        <v>207124.9330362105</v>
+        <v>239125.5437371679</v>
       </c>
       <c r="AE3" t="n">
-        <v>283397.4710871509</v>
+        <v>327182.1184154854</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.03771331329177e-06</v>
+        <v>6.102171776665435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>256350.4141975253</v>
+        <v>295956.3162369959</v>
       </c>
     </row>
   </sheetData>
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.4475346350872</v>
+        <v>279.1563414747754</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.3591688010256</v>
+        <v>381.9540219143897</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.8301533927595</v>
+        <v>345.5008661387162</v>
       </c>
       <c r="AD2" t="n">
-        <v>241447.5346350872</v>
+        <v>279156.3414747755</v>
       </c>
       <c r="AE2" t="n">
-        <v>330359.1688010256</v>
+        <v>381954.0219143897</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.49077231060215e-06</v>
+        <v>5.517123713926948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>298830.1533927595</v>
+        <v>345500.8661387162</v>
       </c>
     </row>
     <row r="3">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.1271009847272</v>
+        <v>280.8359078244154</v>
       </c>
       <c r="AB3" t="n">
-        <v>332.6572255778397</v>
+        <v>384.2520786912049</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.9088868561381</v>
+        <v>347.5795996020951</v>
       </c>
       <c r="AD3" t="n">
-        <v>243127.1009847272</v>
+        <v>280835.9078244154</v>
       </c>
       <c r="AE3" t="n">
-        <v>332657.2255778397</v>
+        <v>384252.0786912049</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.49077231060215e-06</v>
+        <v>5.517123713926948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>300908.8868561381</v>
+        <v>347579.5996020951</v>
       </c>
     </row>
   </sheetData>
@@ -4279,28 +4279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>447.6492655338181</v>
+        <v>498.4943614484602</v>
       </c>
       <c r="AB2" t="n">
-        <v>612.4934739951594</v>
+        <v>682.0619773528923</v>
       </c>
       <c r="AC2" t="n">
-        <v>554.0379564770504</v>
+        <v>616.9669395143289</v>
       </c>
       <c r="AD2" t="n">
-        <v>447649.2655338181</v>
+        <v>498494.3614484601</v>
       </c>
       <c r="AE2" t="n">
-        <v>612493.4739951594</v>
+        <v>682061.9773528923</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.65304017478124e-06</v>
+        <v>3.867830894736931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.74375</v>
       </c>
       <c r="AH2" t="n">
-        <v>554037.9564770504</v>
+        <v>616966.939514329</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.432086657261</v>
+        <v>239.3288172670219</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.0812439883619</v>
+        <v>327.4602462268266</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.2552445621988</v>
+        <v>296.2078999203777</v>
       </c>
       <c r="AD3" t="n">
-        <v>205432.086657261</v>
+        <v>239328.8172670219</v>
       </c>
       <c r="AE3" t="n">
-        <v>281081.2439883619</v>
+        <v>327460.2462268266</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.143103834589882e-06</v>
+        <v>6.040174273972742e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.520833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>254255.2445621988</v>
+        <v>296207.8999203777</v>
       </c>
     </row>
     <row r="4">
@@ -4491,28 +4491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.3877660352446</v>
+        <v>238.1139044444133</v>
       </c>
       <c r="AB4" t="n">
-        <v>279.6523584411456</v>
+        <v>325.7979489047634</v>
       </c>
       <c r="AC4" t="n">
-        <v>252.962729846155</v>
+        <v>294.7042499216828</v>
       </c>
       <c r="AD4" t="n">
-        <v>204387.7660352446</v>
+        <v>238113.9044444133</v>
       </c>
       <c r="AE4" t="n">
-        <v>279652.3584411456</v>
+        <v>325797.9489047634</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.165986474352074e-06</v>
+        <v>6.073534560736075e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.479166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>252962.729846155</v>
+        <v>294704.2499216828</v>
       </c>
     </row>
   </sheetData>
@@ -4788,28 +4788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.3122833067635</v>
+        <v>307.9244551930263</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.2754825384017</v>
+        <v>421.315824263305</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.8912961347514</v>
+        <v>381.1060333160876</v>
       </c>
       <c r="AD2" t="n">
-        <v>263312.2833067635</v>
+        <v>307924.4551930263</v>
       </c>
       <c r="AE2" t="n">
-        <v>360275.4825384017</v>
+        <v>421315.8242633051</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.236435091412086e-06</v>
+        <v>5.185529247530042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>325891.2961347514</v>
+        <v>381106.0333160876</v>
       </c>
     </row>
   </sheetData>
@@ -5085,28 +5085,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.148762742199</v>
+        <v>304.0817035386416</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.9976994230374</v>
+        <v>416.0580019195377</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.5901996886434</v>
+        <v>376.3500101574095</v>
       </c>
       <c r="AD2" t="n">
-        <v>271148.762742199</v>
+        <v>304081.7035386416</v>
       </c>
       <c r="AE2" t="n">
-        <v>370997.6994230374</v>
+        <v>416058.0019195377</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.522928449087304e-06</v>
+        <v>5.230996341601167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.195833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>335590.1996886434</v>
+        <v>376350.0101574095</v>
       </c>
     </row>
     <row r="3">
@@ -5191,28 +5191,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.4467577642498</v>
+        <v>232.379609052141</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.8918529428734</v>
+        <v>317.9520329698021</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.8474375042066</v>
+        <v>287.6071371917395</v>
       </c>
       <c r="AD3" t="n">
-        <v>199446.7577642498</v>
+        <v>232379.609052141</v>
       </c>
       <c r="AE3" t="n">
-        <v>272891.8529428734</v>
+        <v>317952.0329698022</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.129027009997501e-06</v>
+        <v>6.130957666558635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.845833333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>246847.4375042066</v>
+        <v>287607.1371917395</v>
       </c>
     </row>
   </sheetData>
@@ -5488,28 +5488,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.4212987553103</v>
+        <v>391.1285780175232</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.0936363367546</v>
+        <v>535.159375818615</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.465050693407</v>
+        <v>484.0845160913869</v>
       </c>
       <c r="AD2" t="n">
-        <v>349421.2987553102</v>
+        <v>391128.5780175232</v>
       </c>
       <c r="AE2" t="n">
-        <v>478093.6363367546</v>
+        <v>535159.375818615</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.060536149764883e-06</v>
+        <v>4.500342363564149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.37083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>432465.050693407</v>
+        <v>484084.516091387</v>
       </c>
     </row>
     <row r="3">
@@ -5594,28 +5594,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.0581536270016</v>
+        <v>235.492178113588</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.4648799689432</v>
+        <v>322.2107872765274</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.0794598456844</v>
+        <v>291.4594419646314</v>
       </c>
       <c r="AD3" t="n">
-        <v>202058.1536270017</v>
+        <v>235492.178113588</v>
       </c>
       <c r="AE3" t="n">
-        <v>276464.8799689432</v>
+        <v>322210.7872765274</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.145107649101644e-06</v>
+        <v>6.09514236785571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>250079.4598456844</v>
+        <v>291459.4419646314</v>
       </c>
     </row>
     <row r="4">
@@ -5700,28 +5700,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.0172113626326</v>
+        <v>235.4512358492189</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.4088609565882</v>
+        <v>322.1547682641725</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.0287872092454</v>
+        <v>291.4087693281925</v>
       </c>
       <c r="AD4" t="n">
-        <v>202017.2113626326</v>
+        <v>235451.2358492189</v>
       </c>
       <c r="AE4" t="n">
-        <v>276408.8609565882</v>
+        <v>322154.7682641725</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.155924417812545e-06</v>
+        <v>6.111047804055275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.637499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>250028.7872092454</v>
+        <v>291408.7693281925</v>
       </c>
     </row>
   </sheetData>
@@ -5997,28 +5997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>582.732877266112</v>
+        <v>642.6362515238242</v>
       </c>
       <c r="AB2" t="n">
-        <v>797.3208310356355</v>
+        <v>879.2832704453934</v>
       </c>
       <c r="AC2" t="n">
-        <v>721.2256499684083</v>
+        <v>795.365709195905</v>
       </c>
       <c r="AD2" t="n">
-        <v>582732.877266112</v>
+        <v>642636.2515238242</v>
       </c>
       <c r="AE2" t="n">
-        <v>797320.8310356354</v>
+        <v>879283.2704453934</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.293695771223363e-06</v>
+        <v>3.318455980460751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.35625</v>
       </c>
       <c r="AH2" t="n">
-        <v>721225.6499684083</v>
+        <v>795365.709195905</v>
       </c>
     </row>
     <row r="3">
@@ -6103,28 +6103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.815996896013</v>
+        <v>245.973385528737</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.8159916152607</v>
+        <v>336.5516376601639</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.1563601348845</v>
+        <v>304.4316217151683</v>
       </c>
       <c r="AD3" t="n">
-        <v>211815.996896013</v>
+        <v>245973.385528737</v>
       </c>
       <c r="AE3" t="n">
-        <v>289815.9916152607</v>
+        <v>336551.6376601639</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.099330492011392e-06</v>
+        <v>5.930798651577405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.472916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>262156.3601348845</v>
+        <v>304431.6217151682</v>
       </c>
     </row>
     <row r="4">
@@ -6209,28 +6209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.8378629040425</v>
+        <v>242.9952515367665</v>
       </c>
       <c r="AB4" t="n">
-        <v>285.7411773014497</v>
+        <v>332.4768233463529</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.4704403801445</v>
+        <v>300.7457019604282</v>
       </c>
       <c r="AD4" t="n">
-        <v>208837.8629040425</v>
+        <v>242995.2515367665</v>
       </c>
       <c r="AE4" t="n">
-        <v>285741.1773014497</v>
+        <v>332476.8233463529</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.143739783132654e-06</v>
+        <v>5.995048793012149e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.393750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>258470.4403801445</v>
+        <v>300745.7019604282</v>
       </c>
     </row>
     <row r="5">
@@ -6315,28 +6315,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>208.7659260481502</v>
+        <v>242.9233146808743</v>
       </c>
       <c r="AB5" t="n">
-        <v>285.6427501215879</v>
+        <v>332.3783961664911</v>
       </c>
       <c r="AC5" t="n">
-        <v>258.3814069521853</v>
+        <v>300.656668532469</v>
       </c>
       <c r="AD5" t="n">
-        <v>208765.9260481502</v>
+        <v>242923.3146808743</v>
       </c>
       <c r="AE5" t="n">
-        <v>285642.7501215879</v>
+        <v>332378.3961664911</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.155062681862248e-06</v>
+        <v>6.011430451589882e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.372916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>258381.4069521853</v>
+        <v>300656.668532469</v>
       </c>
     </row>
   </sheetData>
@@ -6612,28 +6612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.6615580572465</v>
+        <v>247.9595436440212</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.0776580502426</v>
+        <v>339.2691868166062</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.9158605101086</v>
+        <v>306.8898117942247</v>
       </c>
       <c r="AD2" t="n">
-        <v>215661.5580572465</v>
+        <v>247959.5436440212</v>
       </c>
       <c r="AE2" t="n">
-        <v>295077.6580502426</v>
+        <v>339269.1868166062</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.95377158618656e-06</v>
+        <v>5.93731795838437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.383333333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>266915.8605101086</v>
+        <v>306889.8117942247</v>
       </c>
     </row>
     <row r="3">
@@ -6718,28 +6718,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.9797201272664</v>
+        <v>239.2777057140411</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.1987843787921</v>
+        <v>327.3903131451558</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.1706898697537</v>
+        <v>296.1446411538698</v>
       </c>
       <c r="AD3" t="n">
-        <v>206979.7201272664</v>
+        <v>239277.7057140411</v>
       </c>
       <c r="AE3" t="n">
-        <v>283198.7843787922</v>
+        <v>327390.3131451558</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.076904375294852e-06</v>
+        <v>6.122224573271486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.129166666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>256170.6898697537</v>
+        <v>296144.6411538698</v>
       </c>
     </row>
   </sheetData>
@@ -7015,28 +7015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.6038551472535</v>
+        <v>248.8094742530836</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.7892416818033</v>
+        <v>340.4320993722168</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.4184789670051</v>
+        <v>307.9417376076862</v>
       </c>
       <c r="AD2" t="n">
-        <v>209603.8551472535</v>
+        <v>248809.4742530836</v>
       </c>
       <c r="AE2" t="n">
-        <v>286789.2416818033</v>
+        <v>340432.0993722168</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.898781039089308e-06</v>
+        <v>5.979742743304947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>259418.4789670051</v>
+        <v>307941.7376076862</v>
       </c>
     </row>
     <row r="3">
@@ -7121,28 +7121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.0371858344549</v>
+        <v>249.242804940285</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.3821438452327</v>
+        <v>341.0250015356461</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.9547953801003</v>
+        <v>308.4780540207814</v>
       </c>
       <c r="AD3" t="n">
-        <v>210037.1858344549</v>
+        <v>249242.804940285</v>
       </c>
       <c r="AE3" t="n">
-        <v>287382.1438452327</v>
+        <v>341025.0015356462</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.906901082907703e-06</v>
+        <v>5.992196834112187e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.8375</v>
       </c>
       <c r="AH3" t="n">
-        <v>259954.7953801003</v>
+        <v>308478.0540207814</v>
       </c>
     </row>
   </sheetData>
@@ -12159,28 +12159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.7620091844979</v>
+        <v>264.1033096349577</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.8975408829958</v>
+        <v>361.3577996582557</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.4167931216356</v>
+        <v>326.8703184277281</v>
       </c>
       <c r="AD2" t="n">
-        <v>225762.0091844979</v>
+        <v>264103.3096349577</v>
       </c>
       <c r="AE2" t="n">
-        <v>308897.5408829958</v>
+        <v>361357.7996582557</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.667289120412521e-06</v>
+        <v>5.730066912026083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.737500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>279416.7931216356</v>
+        <v>326870.3184277281</v>
       </c>
     </row>
     <row r="3">
@@ -12265,28 +12265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.6426866490199</v>
+        <v>264.9839870994798</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.102522642702</v>
+        <v>362.5627814179624</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.5067731133984</v>
+        <v>327.960298419491</v>
       </c>
       <c r="AD3" t="n">
-        <v>226642.6866490199</v>
+        <v>264983.9870994798</v>
       </c>
       <c r="AE3" t="n">
-        <v>310102.522642702</v>
+        <v>362562.7814179624</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.673288985752325e-06</v>
+        <v>5.73944158326999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.722916666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>280506.7731133984</v>
+        <v>327960.298419491</v>
       </c>
     </row>
   </sheetData>
@@ -12562,28 +12562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>304.7416808413977</v>
+        <v>355.6133817549584</v>
       </c>
       <c r="AB2" t="n">
-        <v>416.9610119813123</v>
+        <v>486.5659174722954</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.1668382062709</v>
+        <v>440.128749208293</v>
       </c>
       <c r="AD2" t="n">
-        <v>304741.6808413977</v>
+        <v>355613.3817549584</v>
       </c>
       <c r="AE2" t="n">
-        <v>416961.0119813123</v>
+        <v>486565.9174722955</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.861244387008722e-06</v>
+        <v>4.662901688461935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>377166.8382062709</v>
+        <v>440128.749208293</v>
       </c>
     </row>
   </sheetData>
@@ -12859,28 +12859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>304.5151960744261</v>
+        <v>346.0011742705321</v>
       </c>
       <c r="AB2" t="n">
-        <v>416.6511255313389</v>
+        <v>473.4140711314378</v>
       </c>
       <c r="AC2" t="n">
-        <v>376.8865268841546</v>
+        <v>428.2320966234746</v>
       </c>
       <c r="AD2" t="n">
-        <v>304515.1960744261</v>
+        <v>346001.1742705321</v>
       </c>
       <c r="AE2" t="n">
-        <v>416651.125531339</v>
+        <v>473414.0711314378</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.280810487116753e-06</v>
+        <v>4.847006437749473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.770833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>376886.5268841546</v>
+        <v>428232.0966234746</v>
       </c>
     </row>
     <row r="3">
@@ -12965,28 +12965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.293264713096</v>
+        <v>233.4820472699804</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.0500810955351</v>
+        <v>319.4604375755908</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.8951259875621</v>
+        <v>288.9715817790113</v>
       </c>
       <c r="AD3" t="n">
-        <v>200293.264713096</v>
+        <v>233482.0472699804</v>
       </c>
       <c r="AE3" t="n">
-        <v>274050.0810955351</v>
+        <v>319460.4375755908</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.14386583006009e-06</v>
+        <v>6.122067834866853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.735416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>247895.1259875621</v>
+        <v>288971.5817790114</v>
       </c>
     </row>
     <row r="4">
@@ -13071,28 +13071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.0878231335609</v>
+        <v>234.2766056904453</v>
       </c>
       <c r="AB4" t="n">
-        <v>275.1372309798581</v>
+        <v>320.5475874599139</v>
       </c>
       <c r="AC4" t="n">
-        <v>248.8785198127501</v>
+        <v>289.9549756041994</v>
       </c>
       <c r="AD4" t="n">
-        <v>201087.8231335609</v>
+        <v>234276.6056904453</v>
       </c>
       <c r="AE4" t="n">
-        <v>275137.2309798581</v>
+        <v>320547.5874599139</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.14386583006009e-06</v>
+        <v>6.122067834866853e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.735416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>248878.5198127501</v>
+        <v>289954.9756041994</v>
       </c>
     </row>
   </sheetData>
@@ -13368,28 +13368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>511.0630599039279</v>
+        <v>562.3222978027393</v>
       </c>
       <c r="AB2" t="n">
-        <v>699.259025071505</v>
+        <v>769.3941757626334</v>
       </c>
       <c r="AC2" t="n">
-        <v>632.5227251348854</v>
+        <v>695.9642754793547</v>
       </c>
       <c r="AD2" t="n">
-        <v>511063.0599039278</v>
+        <v>562322.2978027393</v>
       </c>
       <c r="AE2" t="n">
-        <v>699259.025071505</v>
+        <v>769394.1757626333</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.467868676549906e-06</v>
+        <v>3.583762426726662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.51666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>632522.7251348854</v>
+        <v>695964.2754793547</v>
       </c>
     </row>
     <row r="3">
@@ -13474,28 +13474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.2574257338076</v>
+        <v>241.2027648960415</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.5787534411683</v>
+        <v>330.0242640455846</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.5143952181068</v>
+        <v>298.5272114771359</v>
       </c>
       <c r="AD3" t="n">
-        <v>207257.4257338076</v>
+        <v>241202.7648960415</v>
       </c>
       <c r="AE3" t="n">
-        <v>283578.7534411683</v>
+        <v>330024.2640455846</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.136838264584377e-06</v>
+        <v>6.007388350497108e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.466666666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>256514.3952181067</v>
+        <v>298527.2114771359</v>
       </c>
     </row>
     <row r="4">
@@ -13580,28 +13580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.2030145203531</v>
+        <v>241.148353682587</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.5043056184667</v>
+        <v>329.9498162228829</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.4470525911156</v>
+        <v>298.4598688501447</v>
       </c>
       <c r="AD4" t="n">
-        <v>207203.0145203531</v>
+        <v>241148.353682587</v>
       </c>
       <c r="AE4" t="n">
-        <v>283504.3056184667</v>
+        <v>329949.8162228829</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.14795879755369e-06</v>
+        <v>6.023537243912423e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>256447.0525911155</v>
+        <v>298459.8688501447</v>
       </c>
     </row>
     <row r="5">
@@ -13686,28 +13686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.2003343834114</v>
+        <v>241.1456735456453</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.5006385368638</v>
+        <v>329.9461491412801</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.443735490634</v>
+        <v>298.4565517496632</v>
       </c>
       <c r="AD5" t="n">
-        <v>207200.3343834114</v>
+        <v>241145.6735456453</v>
       </c>
       <c r="AE5" t="n">
-        <v>283500.6385368638</v>
+        <v>329946.1491412801</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.158931056750078e-06</v>
+        <v>6.039470818748867e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.427083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>256443.735490634</v>
+        <v>298456.5517496632</v>
       </c>
     </row>
   </sheetData>
@@ -13983,28 +13983,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.1683635129131</v>
+        <v>454.0387470446709</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.8455679717334</v>
+        <v>621.2358444823381</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.8960962214708</v>
+        <v>561.9459673949268</v>
       </c>
       <c r="AD2" t="n">
-        <v>390168.3635129131</v>
+        <v>454038.7470446709</v>
       </c>
       <c r="AE2" t="n">
-        <v>533845.5679717334</v>
+        <v>621235.8444823381</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.284372113795042e-06</v>
+        <v>3.807912212994683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>482896.0962214708</v>
+        <v>561945.9673949268</v>
       </c>
     </row>
   </sheetData>
@@ -14280,28 +14280,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.3375723339511</v>
+        <v>240.1930770917857</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.0566576721887</v>
+        <v>328.6427646475204</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.8512503435707</v>
+        <v>297.277560442676</v>
       </c>
       <c r="AD2" t="n">
-        <v>208337.5723339511</v>
+        <v>240193.0770917857</v>
       </c>
       <c r="AE2" t="n">
-        <v>285056.6576721887</v>
+        <v>328642.7646475204</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.965570999341739e-06</v>
+        <v>6.035228762806296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.579166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>257851.2503435707</v>
+        <v>297277.560442676</v>
       </c>
     </row>
     <row r="3">
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.0718668403967</v>
+        <v>239.9273715982315</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.6931076938088</v>
+        <v>328.2792146691405</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.5223970648817</v>
+        <v>296.9487071639869</v>
       </c>
       <c r="AD3" t="n">
-        <v>208071.8668403967</v>
+        <v>239927.3715982315</v>
       </c>
       <c r="AE3" t="n">
-        <v>284693.1076938089</v>
+        <v>328279.2146691405</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.982227573297135e-06</v>
+        <v>6.060578513004215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.543749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>257522.3970648816</v>
+        <v>296948.7071639869</v>
       </c>
     </row>
   </sheetData>
@@ -14683,28 +14683,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.7197865681471</v>
+        <v>275.4655514787343</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.1539670885457</v>
+        <v>376.9041202156433</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.5034832121339</v>
+        <v>340.9329199705166</v>
       </c>
       <c r="AD2" t="n">
-        <v>234719.7865681471</v>
+        <v>275465.5514787343</v>
       </c>
       <c r="AE2" t="n">
-        <v>321153.9670885457</v>
+        <v>376904.1202156433</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.768626961892544e-06</v>
+        <v>5.626223493186578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.691666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>290503.4832121339</v>
+        <v>340932.9199705166</v>
       </c>
     </row>
     <row r="3">
@@ -14789,28 +14789,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.971764760643</v>
+        <v>239.6321888166551</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.2419465601266</v>
+        <v>327.8753325648429</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.2595572744795</v>
+        <v>296.5833710008712</v>
       </c>
       <c r="AD3" t="n">
-        <v>198971.764760643</v>
+        <v>239632.1888166551</v>
       </c>
       <c r="AE3" t="n">
-        <v>272241.9465601266</v>
+        <v>327875.3325648429</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.107441776363901e-06</v>
+        <v>6.132043753003728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.975000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>246259.5572744795</v>
+        <v>296583.3710008712</v>
       </c>
     </row>
     <row r="4">
@@ -14895,28 +14895,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.7616559333093</v>
+        <v>240.4220799893215</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.3227105101071</v>
+        <v>328.9560965148235</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.2371746299361</v>
+        <v>297.5609883563278</v>
       </c>
       <c r="AD4" t="n">
-        <v>199761.6559333093</v>
+        <v>240422.0799893215</v>
       </c>
       <c r="AE4" t="n">
-        <v>273322.7105101071</v>
+        <v>328956.0965148235</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.107441776363901e-06</v>
+        <v>6.132043753003728e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.975000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>247237.1746299361</v>
+        <v>297560.9883563278</v>
       </c>
     </row>
   </sheetData>
